--- a/X2061_Configuration File_V20_20210629.xlsx
+++ b/X2061_Configuration File_V20_20210629.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\AAC_DataPlot_Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\AAC_PyQt5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -313,403 +313,404 @@
     <t>MicroTap_Momtm CLTestLoading MicroTap150Hz_Momentum-Hall</t>
   </si>
   <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap100Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap125Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap150Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap200Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap230Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap270Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>MiniTap_Momtm CLTestLoading MiniTap300Hz_Momentum-Hall</t>
+  </si>
+  <si>
+    <t>Minitap_Momentum</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boxplot</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicroTap_PeakPower CLTestLoading MicroTap150Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading FullTap150Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap80Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap100Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap125Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap150Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap200Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap230Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap270Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>MiniTap_PeakPower CLTestLoading MiniTap300Hz_PeakPower</t>
+  </si>
+  <si>
+    <t>Minitap_PeakPower</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap80Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap100Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap125Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap150Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap200Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap230Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap270Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>MiniTap_AWL CLTestLoading MiniTap300Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>Vibe_AWL CLTestLoading FullTap150Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>Vibe_AWL CLTestLoading MicroTap150Hz_AWeightedSPL</t>
+  </si>
+  <si>
+    <t>Minitap_AweightedSPL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Item</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plot Title</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common CLTest5 BPMode400To600_Max80to305</t>
+  </si>
+  <si>
+    <t>Common CLTest6 BPMode400To600_Max80to305</t>
+  </si>
+  <si>
+    <t>Common CLTestLoading BPMode400To600_Max80to305</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impedance Test Noise</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impedance Test Res</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_AWL_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_BP6K_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_IPM_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_Mode600To750_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_ISM_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_Mode400to600_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_Mode750to850_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_Mode850to1000_Histogram</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>TravelMarginTest TMTest AWL_Baseline</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fomular</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group Items</t>
+  </si>
+  <si>
+    <t>Empty</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDTFTest CDTFTest FRSpectrum@</t>
+  </si>
+  <si>
+    <t>Common CDTFTest PRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Generate_Cliff FBTF_FRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Generate_Cliff FRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common Generate_Cliff PRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common LTFTest FRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common LTFTest PRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common LTFTest PTF_FRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common LTFTest PTF_PRSpectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AET_F0 ChirpAET F0</t>
+  </si>
+  <si>
+    <t>AET_KM ChirpAET MotorConstant</t>
+  </si>
+  <si>
+    <t>AET_KM ChirpAET MotorConstant_ZeroDisp</t>
+  </si>
+  <si>
+    <t>AET_Q ChirpAET QFactor_Total</t>
+  </si>
+  <si>
+    <t>AET Test</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDTFTest</t>
+  </si>
+  <si>
+    <t>CDTFTest CDTFTest Mask_10Hz_300Hz_Max</t>
+  </si>
+  <si>
+    <t>CDTFTest CDTFTest Mask_10Hz_300Hz_Min</t>
+  </si>
+  <si>
+    <t>CDTFTest CDTFTest Mask_300Hz_950Hz_Max</t>
+  </si>
+  <si>
+    <t>CDTFTest CDTFTest Mask_300Hz_950Hz_Min</t>
+  </si>
+  <si>
+    <t>Common ChirpAET AETQuadcoefBest</t>
+  </si>
+  <si>
+    <t>Common ChirpAET AETX0Best</t>
+  </si>
+  <si>
+    <t>Common ChirpAET EngineEfficiency</t>
+  </si>
+  <si>
+    <t>Common ChirpAET MotorConstant_ZeroDisp_Classic</t>
+  </si>
+  <si>
+    <t>Common ChirpAET QFactor_Electrical</t>
+  </si>
+  <si>
+    <t>Common ChirpAET QFactor_Mechanical</t>
+  </si>
+  <si>
+    <t>Chirp AET</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HES CAL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common HESCal DigitalHallOffset_Top-STD</t>
+  </si>
+  <si>
+    <t>Common HESCal DigitalHallOffset_X</t>
+  </si>
+  <si>
+    <t>Common HESCal HallOffsetPreamp_X</t>
+  </si>
+  <si>
+    <t>Common HESCal SakonnetTemperature</t>
+  </si>
+  <si>
+    <t>HESLinearityTest</t>
+  </si>
+  <si>
+    <t>Ringdown_Test</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD_F0 RingDownTest F0_ZeroCrossing</t>
+  </si>
+  <si>
+    <t>RD_F0 RingDownTest F0_ZeroCrossing-Range</t>
+  </si>
+  <si>
+    <t>RD_Q RingDownTest QFactor</t>
+  </si>
+  <si>
+    <t>RD_Q RingDownTest QFactor-Range</t>
+  </si>
+  <si>
+    <t>Impedance Test</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT CAL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUTCal LUTCal HallNonlinearitySum</t>
+  </si>
+  <si>
+    <t>LUTCal LUTCal HallSensitivitySum_CtPerUm</t>
+  </si>
+  <si>
+    <t>Hall_Offset</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HallOffset HESCal EMCouplingFactor</t>
+  </si>
+  <si>
+    <t>HallOffset HESLinearityTest HallToMagnetCenterShift-STD</t>
+  </si>
+  <si>
+    <t>HallOffset HESLinearityTest HallToMagnetCenterShift_um</t>
+  </si>
+  <si>
+    <t>Hall_RDC</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>HallRdc HESCal HallResistance</t>
+  </si>
+  <si>
+    <t>HallRdc HESCal HallResistance-STD</t>
+  </si>
+  <si>
+    <t>HallRdc HESLinearityTest HallResistance</t>
+  </si>
+  <si>
+    <t>HallRdc HESLinearityTest HallResistance-STD</t>
+  </si>
+  <si>
+    <t>HallRdc ImpedanceTest HallResistance_X</t>
+  </si>
+  <si>
+    <t>HESLinearity HESLinearityTest Position-bEMF</t>
+  </si>
+  <si>
+    <t>HESLinearity HESLinearityTest Position-Hall</t>
+  </si>
+  <si>
+    <t>HESLinearity HESLinearityTest Position_Delta</t>
+  </si>
+  <si>
+    <t>HESLinearity HESLinearityTest PositionTHD-bEMF</t>
+  </si>
+  <si>
+    <t>HESLinearity HESLinearityTest PositionTHD-Hall</t>
+  </si>
+  <si>
+    <t>LTFTest LTFTest GainMargin</t>
+  </si>
+  <si>
+    <t>LTFTest LTFTest PeakGain-STF</t>
+  </si>
+  <si>
+    <t>LTFTest LTFTest PhaseMargin</t>
+  </si>
+  <si>
+    <t>PTFTest LTFTest PTF_AbsMag_3To10kHz</t>
+  </si>
+  <si>
+    <t>Sweep_LTF</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_Cliff</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep_CDTF</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTF</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLTestLoading ImpactPrimaryMagSSQ6K_Spectrum@</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>X-Axis Mark</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>MiniTap_Momtm CLTestLoading MiniTap80Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap100Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap125Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap150Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap200Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap230Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap270Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>MiniTap_Momtm CLTestLoading MiniTap300Hz_Momentum-Hall</t>
-  </si>
-  <si>
-    <t>Minitap_Momentum</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boxplot</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MicroTap_PeakPower CLTestLoading MicroTap150Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading FullTap150Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap80Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap100Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap125Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap150Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap200Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap230Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap270Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>MiniTap_PeakPower CLTestLoading MiniTap300Hz_PeakPower</t>
-  </si>
-  <si>
-    <t>Minitap_PeakPower</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap80Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap100Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap125Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap150Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap200Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap230Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap270Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>MiniTap_AWL CLTestLoading MiniTap300Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>Vibe_AWL CLTestLoading FullTap150Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>Vibe_AWL CLTestLoading MicroTap150Hz_AWeightedSPL</t>
-  </si>
-  <si>
-    <t>Minitap_AweightedSPL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Item</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plot Title</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common CLTest5 BPMode400To600_Max80to305</t>
-  </si>
-  <si>
-    <t>Common CLTest6 BPMode400To600_Max80to305</t>
-  </si>
-  <si>
-    <t>Common CLTestLoading BPMode400To600_Max80to305</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upper Limit</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impedance Test Noise</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Impedance Test Res</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_AWL_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_BP6K_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_IPM_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_Mode600To750_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_ISM_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_Mode400to600_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_Mode750to850_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_Mode850to1000_Histogram</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>TravelMarginTest TMTest AWL_Baseline</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fomular</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group Items</t>
-  </si>
-  <si>
-    <t>Empty</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDTFTest CDTFTest FRSpectrum@</t>
-  </si>
-  <si>
-    <t>Common CDTFTest PRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Generate_Cliff FBTF_FRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Generate_Cliff FRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common Generate_Cliff PRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common LTFTest FRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common LTFTest PRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common LTFTest PTF_FRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common LTFTest PTF_PRSpectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>AET_F0 ChirpAET F0</t>
-  </si>
-  <si>
-    <t>AET_KM ChirpAET MotorConstant</t>
-  </si>
-  <si>
-    <t>AET_KM ChirpAET MotorConstant_ZeroDisp</t>
-  </si>
-  <si>
-    <t>AET_Q ChirpAET QFactor_Total</t>
-  </si>
-  <si>
-    <t>AET Test</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDTFTest</t>
-  </si>
-  <si>
-    <t>CDTFTest CDTFTest Mask_10Hz_300Hz_Max</t>
-  </si>
-  <si>
-    <t>CDTFTest CDTFTest Mask_10Hz_300Hz_Min</t>
-  </si>
-  <si>
-    <t>CDTFTest CDTFTest Mask_300Hz_950Hz_Max</t>
-  </si>
-  <si>
-    <t>CDTFTest CDTFTest Mask_300Hz_950Hz_Min</t>
-  </si>
-  <si>
-    <t>Common ChirpAET AETQuadcoefBest</t>
-  </si>
-  <si>
-    <t>Common ChirpAET AETX0Best</t>
-  </si>
-  <si>
-    <t>Common ChirpAET EngineEfficiency</t>
-  </si>
-  <si>
-    <t>Common ChirpAET MotorConstant_ZeroDisp_Classic</t>
-  </si>
-  <si>
-    <t>Common ChirpAET QFactor_Electrical</t>
-  </si>
-  <si>
-    <t>Common ChirpAET QFactor_Mechanical</t>
-  </si>
-  <si>
-    <t>Chirp AET</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>HES CAL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common HESCal DigitalHallOffset_Top-STD</t>
-  </si>
-  <si>
-    <t>Common HESCal DigitalHallOffset_X</t>
-  </si>
-  <si>
-    <t>Common HESCal HallOffsetPreamp_X</t>
-  </si>
-  <si>
-    <t>Common HESCal SakonnetTemperature</t>
-  </si>
-  <si>
-    <t>HESLinearityTest</t>
-  </si>
-  <si>
-    <t>Ringdown_Test</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RD_F0 RingDownTest F0_ZeroCrossing</t>
-  </si>
-  <si>
-    <t>RD_F0 RingDownTest F0_ZeroCrossing-Range</t>
-  </si>
-  <si>
-    <t>RD_Q RingDownTest QFactor</t>
-  </si>
-  <si>
-    <t>RD_Q RingDownTest QFactor-Range</t>
-  </si>
-  <si>
-    <t>Impedance Test</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUT CAL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUTCal LUTCal HallNonlinearitySum</t>
-  </si>
-  <si>
-    <t>LUTCal LUTCal HallSensitivitySum_CtPerUm</t>
-  </si>
-  <si>
-    <t>Hall_Offset</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>HallOffset HESCal EMCouplingFactor</t>
-  </si>
-  <si>
-    <t>HallOffset HESLinearityTest HallToMagnetCenterShift-STD</t>
-  </si>
-  <si>
-    <t>HallOffset HESLinearityTest HallToMagnetCenterShift_um</t>
-  </si>
-  <si>
-    <t>Hall_RDC</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>HallRdc HESCal HallResistance</t>
-  </si>
-  <si>
-    <t>HallRdc HESCal HallResistance-STD</t>
-  </si>
-  <si>
-    <t>HallRdc HESLinearityTest HallResistance</t>
-  </si>
-  <si>
-    <t>HallRdc HESLinearityTest HallResistance-STD</t>
-  </si>
-  <si>
-    <t>HallRdc ImpedanceTest HallResistance_X</t>
-  </si>
-  <si>
-    <t>HESLinearity HESLinearityTest Position-bEMF</t>
-  </si>
-  <si>
-    <t>HESLinearity HESLinearityTest Position-Hall</t>
-  </si>
-  <si>
-    <t>HESLinearity HESLinearityTest Position_Delta</t>
-  </si>
-  <si>
-    <t>HESLinearity HESLinearityTest PositionTHD-bEMF</t>
-  </si>
-  <si>
-    <t>HESLinearity HESLinearityTest PositionTHD-Hall</t>
-  </si>
-  <si>
-    <t>LTFTest LTFTest GainMargin</t>
-  </si>
-  <si>
-    <t>LTFTest LTFTest PeakGain-STF</t>
-  </si>
-  <si>
-    <t>LTFTest LTFTest PhaseMargin</t>
-  </si>
-  <si>
-    <t>PTFTest LTFTest PTF_AbsMag_3To10kHz</t>
-  </si>
-  <si>
-    <t>Sweep_LTF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_Cliff</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sweep_CDTF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLTestLoading ImpactPrimaryMagSSQ6K_Spectrum@</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>X-Axis Mark</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1610,8 +1611,8 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43:H52"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,34 +1632,34 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>2</v>
@@ -1679,7 +1680,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1730,7 +1731,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -1741,7 +1742,9 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" t="s">
@@ -1757,7 +1760,9 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" t="s">
@@ -1773,7 +1778,9 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" t="s">
@@ -1789,7 +1796,9 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="9" t="s">
@@ -1805,7 +1814,9 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="9" t="s">
@@ -1821,7 +1832,9 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="9" t="s">
@@ -1830,7 +1843,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -1841,7 +1854,9 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="9"/>
@@ -1855,7 +1870,9 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="9"/>
@@ -1869,7 +1886,9 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="9"/>
@@ -1883,7 +1902,9 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="9"/>
@@ -1897,7 +1918,9 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
@@ -1910,7 +1933,9 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
@@ -1923,7 +1948,9 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
@@ -1936,13 +1963,15 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
@@ -1953,7 +1982,9 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
@@ -1966,7 +1997,9 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
@@ -1977,13 +2010,15 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>18</v>
@@ -1994,7 +2029,9 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
@@ -2007,7 +2044,9 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
@@ -2020,13 +2059,15 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
@@ -2037,7 +2078,9 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
@@ -2050,7 +2093,9 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
@@ -2063,13 +2108,15 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>18</v>
@@ -2080,7 +2127,9 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
@@ -2091,7 +2140,9 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
@@ -2104,13 +2155,15 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
@@ -2121,7 +2174,9 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
@@ -2134,7 +2189,9 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
     </row>
@@ -2147,35 +2204,41 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
@@ -2184,17 +2247,19 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>18</v>
@@ -2205,7 +2270,9 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
@@ -2218,7 +2285,9 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
@@ -2231,13 +2300,15 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>18</v>
@@ -2248,7 +2319,9 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="3"/>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
@@ -2261,7 +2334,9 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
@@ -2274,16 +2349,18 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>84</v>
@@ -2317,7 +2394,7 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -2332,7 +2409,7 @@
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -2347,7 +2424,7 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -2362,7 +2439,7 @@
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -2377,7 +2454,7 @@
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -2392,7 +2469,7 @@
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -2405,7 +2482,7 @@
     <row r="51" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="D51" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -2420,7 +2497,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -2432,17 +2509,19 @@
     </row>
     <row r="53" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
@@ -2451,11 +2530,13 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
@@ -2464,11 +2545,13 @@
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
@@ -2477,11 +2560,13 @@
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
@@ -2490,22 +2575,26 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="D58" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
@@ -2514,11 +2603,13 @@
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="3"/>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
@@ -2527,11 +2618,13 @@
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="3"/>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
@@ -2540,11 +2633,13 @@
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="3"/>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
@@ -2553,27 +2648,31 @@
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="L63" s="13">
@@ -2585,11 +2684,13 @@
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="L64" s="13">
@@ -2601,11 +2702,13 @@
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="L65" s="13">
@@ -2617,11 +2720,13 @@
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="3"/>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="L66" s="13">
@@ -2633,11 +2738,13 @@
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="L67" s="13">
@@ -2649,11 +2756,13 @@
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="3"/>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="L68" s="13">
@@ -2665,11 +2774,13 @@
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="L69" s="13">
@@ -2681,11 +2792,13 @@
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
-      <c r="H70" s="3"/>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="L70" s="13">
@@ -2697,11 +2810,13 @@
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="L71" s="13">
@@ -2713,11 +2828,13 @@
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="3"/>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="L72" s="13">
@@ -2784,7 +2901,9 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="3"/>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
@@ -2797,7 +2916,9 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
@@ -2810,7 +2931,9 @@
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="3"/>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
@@ -2827,7 +2950,9 @@
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="3"/>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="L79">
@@ -2846,7 +2971,9 @@
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="3"/>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="L80">
@@ -2865,7 +2992,9 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="3"/>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="L81">
@@ -2888,7 +3017,9 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="3"/>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
     </row>
@@ -2901,7 +3032,9 @@
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="3"/>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
@@ -2914,7 +3047,9 @@
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="3"/>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
@@ -2931,7 +3066,9 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="3"/>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="L85">
@@ -2950,7 +3087,9 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="3"/>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="L86">
@@ -2969,7 +3108,9 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="3"/>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="L87">
@@ -2992,7 +3133,9 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="L88">
@@ -3011,7 +3154,9 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="L89">
@@ -3026,11 +3171,13 @@
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="3"/>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="L90">
@@ -3053,7 +3200,9 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
@@ -3066,7 +3215,9 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
@@ -3077,7 +3228,9 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
@@ -3119,34 +3272,34 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>2</v>
@@ -3160,14 +3313,14 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3185,7 +3338,7 @@
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3203,7 +3356,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -3221,7 +3374,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -3236,14 +3389,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -3261,7 +3414,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -3279,7 +3432,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3297,7 +3450,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3312,14 +3465,14 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3337,7 +3490,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3353,7 +3506,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3369,7 +3522,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3385,7 +3538,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3400,7 +3553,7 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3412,14 +3565,14 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3434,7 +3587,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3449,7 +3602,7 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3464,7 +3617,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3476,14 +3629,14 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3498,7 +3651,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3513,7 +3666,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3528,7 +3681,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3541,7 +3694,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3553,14 +3706,14 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3575,7 +3728,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3590,7 +3743,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3605,7 +3758,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3617,7 +3770,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>18</v>
@@ -3650,14 +3803,14 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3672,7 +3825,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -3684,14 +3837,14 @@
     </row>
     <row r="33" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -3706,7 +3859,7 @@
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -3721,7 +3874,7 @@
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -3733,13 +3886,13 @@
     </row>
     <row r="36" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -3754,7 +3907,7 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -3769,7 +3922,7 @@
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -3784,7 +3937,7 @@
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -3799,7 +3952,7 @@
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -3811,14 +3964,14 @@
     </row>
     <row r="41" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -3833,7 +3986,7 @@
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -3848,7 +4001,7 @@
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -3861,7 +4014,7 @@
     <row r="44" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="D44" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -3873,14 +4026,14 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3895,7 +4048,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3907,13 +4060,13 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3928,7 +4081,7 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3943,7 +4096,7 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3955,14 +4108,14 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3977,7 +4130,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3992,7 +4145,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -4007,7 +4160,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -4052,34 +4205,34 @@
   <sheetData>
     <row r="1" spans="1:13" s="6" customFormat="1" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>2</v>
